--- a/data/Victor ValdezT3-2025.xlsx
+++ b/data/Victor ValdezT3-2025.xlsx
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>36.82092981000002</v>
+        <v>15.63214423000002</v>
       </c>
     </row>
   </sheetData>
